--- a/code/results/SP/B/energy_estimation/decimate.xlsx
+++ b/code/results/SP/B/energy_estimation/decimate.xlsx
@@ -468,58 +468,58 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1304297156.097558</v>
+        <v>1352379358.924205</v>
       </c>
       <c r="C2" t="n">
-        <v>4035596.341463412</v>
+        <v>4162131.051344748</v>
       </c>
       <c r="D2" t="n">
-        <v>11706234102.92683</v>
+        <v>11793820657.94621</v>
       </c>
       <c r="E2" t="n">
-        <v>24545605696.34143</v>
+        <v>25473973255.25668</v>
       </c>
       <c r="F2" t="n">
-        <v>8190893.65853658</v>
+        <v>8262365.770171136</v>
       </c>
       <c r="G2" t="n">
-        <v>130602388.780488</v>
+        <v>131698120.2933983</v>
       </c>
       <c r="H2" t="n">
-        <v>527867730.7317077</v>
+        <v>583338174.8166258</v>
       </c>
       <c r="I2" t="n">
-        <v>488319673.9024397</v>
+        <v>507519188.508558</v>
       </c>
       <c r="J2" t="n">
-        <v>283599702.9268293</v>
+        <v>298023525.9168706</v>
       </c>
       <c r="K2" t="n">
-        <v>373670512.4390244</v>
+        <v>388458207.8239616</v>
       </c>
       <c r="L2" t="n">
-        <v>17483083.17073173</v>
+        <v>16915393.39853301</v>
       </c>
       <c r="M2" t="n">
-        <v>2060542.682926827</v>
+        <v>2188038.386308072</v>
       </c>
       <c r="N2" t="n">
-        <v>3338843971.951214</v>
+        <v>3465820605.867969</v>
       </c>
       <c r="O2" t="n">
-        <v>3286258455.365849</v>
+        <v>3410141231.784835</v>
       </c>
       <c r="P2" t="n">
-        <v>301.2195121951214</v>
+        <v>75.7946210268949</v>
       </c>
       <c r="Q2" t="n">
-        <v>215.1219512195125</v>
+        <v>314.6699266503672</v>
       </c>
       <c r="R2" t="n">
-        <v>3501867641.46342</v>
+        <v>3433886117.359411</v>
       </c>
       <c r="S2" t="n">
-        <v>32718306410.73179</v>
+        <v>32588753601.22253</v>
       </c>
       <c r="T2" t="n">
         <v>10</v>
@@ -530,58 +530,58 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1304297156.097558</v>
+        <v>1352379358.924205</v>
       </c>
       <c r="C3" t="n">
-        <v>4035596.341463412</v>
+        <v>4162131.051344748</v>
       </c>
       <c r="D3" t="n">
-        <v>11706234102.92683</v>
+        <v>11793820657.94621</v>
       </c>
       <c r="E3" t="n">
-        <v>24545605696.34143</v>
+        <v>25473973255.25668</v>
       </c>
       <c r="F3" t="n">
-        <v>8190893.65853658</v>
+        <v>8262365.770171136</v>
       </c>
       <c r="G3" t="n">
-        <v>130602388.780488</v>
+        <v>131698120.2933983</v>
       </c>
       <c r="H3" t="n">
-        <v>527867730.7317077</v>
+        <v>583338174.8166258</v>
       </c>
       <c r="I3" t="n">
-        <v>488319673.9024397</v>
+        <v>507519188.508558</v>
       </c>
       <c r="J3" t="n">
-        <v>283599702.9268293</v>
+        <v>298023525.9168706</v>
       </c>
       <c r="K3" t="n">
-        <v>373670512.4390244</v>
+        <v>388458207.8239616</v>
       </c>
       <c r="L3" t="n">
-        <v>17483083.17073173</v>
+        <v>16915393.39853301</v>
       </c>
       <c r="M3" t="n">
-        <v>2060542.682926827</v>
+        <v>2188038.386308072</v>
       </c>
       <c r="N3" t="n">
-        <v>3338843971.951214</v>
+        <v>3465820605.867969</v>
       </c>
       <c r="O3" t="n">
-        <v>3286258455.365849</v>
+        <v>3410141231.784835</v>
       </c>
       <c r="P3" t="n">
-        <v>301.2195121951214</v>
+        <v>75.7946210268949</v>
       </c>
       <c r="Q3" t="n">
-        <v>215.1219512195125</v>
+        <v>314.6699266503672</v>
       </c>
       <c r="R3" t="n">
-        <v>3501867641.46342</v>
+        <v>3433886117.359411</v>
       </c>
       <c r="S3" t="n">
-        <v>32718306410.73179</v>
+        <v>32588753601.22253</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -592,58 +592,58 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1304297156.097558</v>
+        <v>1352379358.924205</v>
       </c>
       <c r="C4" t="n">
-        <v>4035596.341463412</v>
+        <v>4162131.051344748</v>
       </c>
       <c r="D4" t="n">
-        <v>11706234102.92683</v>
+        <v>11793820657.94621</v>
       </c>
       <c r="E4" t="n">
-        <v>24545605696.34143</v>
+        <v>25473973255.25668</v>
       </c>
       <c r="F4" t="n">
-        <v>8190893.65853658</v>
+        <v>8262365.770171136</v>
       </c>
       <c r="G4" t="n">
-        <v>130602388.780488</v>
+        <v>131698120.2933983</v>
       </c>
       <c r="H4" t="n">
-        <v>527867730.7317077</v>
+        <v>583338174.8166258</v>
       </c>
       <c r="I4" t="n">
-        <v>488319673.9024397</v>
+        <v>507519188.508558</v>
       </c>
       <c r="J4" t="n">
-        <v>283599702.9268293</v>
+        <v>298023525.9168706</v>
       </c>
       <c r="K4" t="n">
-        <v>373670512.4390244</v>
+        <v>388458207.8239616</v>
       </c>
       <c r="L4" t="n">
-        <v>17483083.17073173</v>
+        <v>16915393.39853301</v>
       </c>
       <c r="M4" t="n">
-        <v>2060542.682926827</v>
+        <v>2188038.386308072</v>
       </c>
       <c r="N4" t="n">
-        <v>3338843971.951214</v>
+        <v>3465820605.867969</v>
       </c>
       <c r="O4" t="n">
-        <v>3286258455.365849</v>
+        <v>3410141231.784835</v>
       </c>
       <c r="P4" t="n">
-        <v>301.2195121951214</v>
+        <v>75.7946210268949</v>
       </c>
       <c r="Q4" t="n">
-        <v>215.1219512195125</v>
+        <v>314.6699266503672</v>
       </c>
       <c r="R4" t="n">
-        <v>3501867641.46342</v>
+        <v>3433886117.359411</v>
       </c>
       <c r="S4" t="n">
-        <v>32718306410.73179</v>
+        <v>32588753601.22253</v>
       </c>
       <c r="T4" t="n">
         <v>30</v>
@@ -654,58 +654,58 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1304297156.097558</v>
+        <v>1352379358.924205</v>
       </c>
       <c r="C5" t="n">
-        <v>4035596.341463412</v>
+        <v>4162131.051344748</v>
       </c>
       <c r="D5" t="n">
-        <v>11706234102.92683</v>
+        <v>11793820657.94621</v>
       </c>
       <c r="E5" t="n">
-        <v>24545605696.34143</v>
+        <v>25473973255.25668</v>
       </c>
       <c r="F5" t="n">
-        <v>8190893.65853658</v>
+        <v>8262365.770171136</v>
       </c>
       <c r="G5" t="n">
-        <v>130602388.780488</v>
+        <v>131698120.2933983</v>
       </c>
       <c r="H5" t="n">
-        <v>527867730.7317077</v>
+        <v>583338174.8166258</v>
       </c>
       <c r="I5" t="n">
-        <v>488319673.9024397</v>
+        <v>507519188.508558</v>
       </c>
       <c r="J5" t="n">
-        <v>283599702.9268293</v>
+        <v>298023525.9168706</v>
       </c>
       <c r="K5" t="n">
-        <v>373670512.4390244</v>
+        <v>388458207.8239616</v>
       </c>
       <c r="L5" t="n">
-        <v>17483083.17073173</v>
+        <v>16915393.39853301</v>
       </c>
       <c r="M5" t="n">
-        <v>2060542.682926827</v>
+        <v>2188038.386308072</v>
       </c>
       <c r="N5" t="n">
-        <v>3338843971.951214</v>
+        <v>3465820605.867969</v>
       </c>
       <c r="O5" t="n">
-        <v>3286258455.365849</v>
+        <v>3410141231.784835</v>
       </c>
       <c r="P5" t="n">
-        <v>301.2195121951214</v>
+        <v>75.7946210268949</v>
       </c>
       <c r="Q5" t="n">
-        <v>215.1219512195125</v>
+        <v>314.6699266503672</v>
       </c>
       <c r="R5" t="n">
-        <v>3501867641.46342</v>
+        <v>3433886117.359411</v>
       </c>
       <c r="S5" t="n">
-        <v>32718306410.73179</v>
+        <v>32588753601.22253</v>
       </c>
       <c r="T5" t="n">
         <v>40</v>
@@ -716,58 +716,58 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1326274640.71811</v>
+        <v>1351819067.279899</v>
       </c>
       <c r="C6" t="n">
-        <v>4101831.951040618</v>
+        <v>4143644.459585797</v>
       </c>
       <c r="D6" t="n">
-        <v>11748404020.33845</v>
+        <v>11795115386.32247</v>
       </c>
       <c r="E6" t="n">
-        <v>24997397799.25672</v>
+        <v>25460847137.70972</v>
       </c>
       <c r="F6" t="n">
-        <v>8138484.805438607</v>
+        <v>8131726.415845674</v>
       </c>
       <c r="G6" t="n">
-        <v>131720203.1639574</v>
+        <v>134974148.7364985</v>
       </c>
       <c r="H6" t="n">
-        <v>539542506.0229957</v>
+        <v>596369899.2630329</v>
       </c>
       <c r="I6" t="n">
-        <v>496570182.1371459</v>
+        <v>527180086.1231663</v>
       </c>
       <c r="J6" t="n">
-        <v>289202753.624497</v>
+        <v>295451994.1186541</v>
       </c>
       <c r="K6" t="n">
-        <v>379856079.5923785</v>
+        <v>387788273.247806</v>
       </c>
       <c r="L6" t="n">
-        <v>17432683.00999465</v>
+        <v>17461048.89569248</v>
       </c>
       <c r="M6" t="n">
-        <v>2045843.650247477</v>
+        <v>2051082.776463393</v>
       </c>
       <c r="N6" t="n">
-        <v>3394605158.648282</v>
+        <v>3464399654.00204</v>
       </c>
       <c r="O6" t="n">
-        <v>3372410438.088263</v>
+        <v>3451895565.958926</v>
       </c>
       <c r="P6" t="n">
-        <v>301.4458226489353</v>
+        <v>55.83812742700973</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.1682986463114</v>
+        <v>326.891108154753</v>
       </c>
       <c r="R6" t="n">
-        <v>3541919013.847451</v>
+        <v>3445398308.430339</v>
       </c>
       <c r="S6" t="n">
-        <v>32638976583.14964</v>
+        <v>32678850775.19496</v>
       </c>
       <c r="T6" t="n">
         <v>50</v>
@@ -778,58 +778,58 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1352074296.577017</v>
+        <v>1351490007.107845</v>
       </c>
       <c r="C7" t="n">
-        <v>4179586.797066022</v>
+        <v>4132787.254901967</v>
       </c>
       <c r="D7" t="n">
-        <v>11797907836.43034</v>
+        <v>11795875782.35295</v>
       </c>
       <c r="E7" t="n">
-        <v>25527762441.80934</v>
+        <v>25453138148.03924</v>
       </c>
       <c r="F7" t="n">
-        <v>8076961.369193158</v>
+        <v>8055001.715686267</v>
       </c>
       <c r="G7" t="n">
-        <v>133032420.0488999</v>
+        <v>136898165.4411763</v>
       </c>
       <c r="H7" t="n">
-        <v>553247677.0171155</v>
+        <v>604023451.7156852</v>
       </c>
       <c r="I7" t="n">
-        <v>506255561.3691927</v>
+        <v>538726962.5</v>
       </c>
       <c r="J7" t="n">
-        <v>295780247.9217596</v>
+        <v>293941729.411765</v>
       </c>
       <c r="K7" t="n">
-        <v>387117397.5550116</v>
+        <v>387394819.6078424</v>
       </c>
       <c r="L7" t="n">
-        <v>17373517.603912</v>
+        <v>17781513.23529408</v>
       </c>
       <c r="M7" t="n">
-        <v>2028588.264058676</v>
+        <v>1970648.529411761</v>
       </c>
       <c r="N7" t="n">
-        <v>3460063943.031787</v>
+        <v>3463565126.715693</v>
       </c>
       <c r="O7" t="n">
-        <v>3473545374.327624</v>
+        <v>3476417952.696082</v>
       </c>
       <c r="P7" t="n">
-        <v>301.7114914425429</v>
+        <v>44.11764705882345</v>
       </c>
       <c r="Q7" t="n">
-        <v>180.4400977995109</v>
+        <v>334.06862745098</v>
       </c>
       <c r="R7" t="n">
-        <v>3588935842.298283</v>
+        <v>3452159436.519611</v>
       </c>
       <c r="S7" t="n">
-        <v>32545850263.81417</v>
+        <v>32731764988.48038</v>
       </c>
       <c r="T7" t="n">
         <v>60</v>
@@ -840,58 +840,58 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1352074296.577017</v>
+        <v>1351490007.107845</v>
       </c>
       <c r="C8" t="n">
-        <v>4179586.797066022</v>
+        <v>4132787.254901967</v>
       </c>
       <c r="D8" t="n">
-        <v>11797907836.43034</v>
+        <v>11795875782.35295</v>
       </c>
       <c r="E8" t="n">
-        <v>25527762441.80934</v>
+        <v>25453138148.03924</v>
       </c>
       <c r="F8" t="n">
-        <v>8076961.369193158</v>
+        <v>8055001.715686267</v>
       </c>
       <c r="G8" t="n">
-        <v>133032420.0488999</v>
+        <v>136898165.4411763</v>
       </c>
       <c r="H8" t="n">
-        <v>553247677.0171155</v>
+        <v>604023451.7156852</v>
       </c>
       <c r="I8" t="n">
-        <v>506255561.3691927</v>
+        <v>538726962.5</v>
       </c>
       <c r="J8" t="n">
-        <v>295780247.9217596</v>
+        <v>293941729.411765</v>
       </c>
       <c r="K8" t="n">
-        <v>387117397.5550116</v>
+        <v>387394819.6078424</v>
       </c>
       <c r="L8" t="n">
-        <v>17373517.603912</v>
+        <v>17781513.23529408</v>
       </c>
       <c r="M8" t="n">
-        <v>2028588.264058676</v>
+        <v>1970648.529411761</v>
       </c>
       <c r="N8" t="n">
-        <v>3460063943.031787</v>
+        <v>3463565126.715693</v>
       </c>
       <c r="O8" t="n">
-        <v>3473545374.327624</v>
+        <v>3476417952.696082</v>
       </c>
       <c r="P8" t="n">
-        <v>301.7114914425429</v>
+        <v>44.11764705882345</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.4400977995109</v>
+        <v>334.06862745098</v>
       </c>
       <c r="R8" t="n">
-        <v>3588935842.298283</v>
+        <v>3452159436.519611</v>
       </c>
       <c r="S8" t="n">
-        <v>32545850263.81417</v>
+        <v>32731764988.48038</v>
       </c>
       <c r="T8" t="n">
         <v>70</v>
@@ -902,58 +902,58 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1352074296.577017</v>
+        <v>1351490007.107845</v>
       </c>
       <c r="C9" t="n">
-        <v>4179586.797066022</v>
+        <v>4132787.254901967</v>
       </c>
       <c r="D9" t="n">
-        <v>11797907836.43034</v>
+        <v>11795875782.35295</v>
       </c>
       <c r="E9" t="n">
-        <v>25527762441.80934</v>
+        <v>25453138148.03924</v>
       </c>
       <c r="F9" t="n">
-        <v>8076961.369193158</v>
+        <v>8055001.715686267</v>
       </c>
       <c r="G9" t="n">
-        <v>133032420.0488999</v>
+        <v>136898165.4411763</v>
       </c>
       <c r="H9" t="n">
-        <v>553247677.0171155</v>
+        <v>604023451.7156852</v>
       </c>
       <c r="I9" t="n">
-        <v>506255561.3691927</v>
+        <v>538726962.5</v>
       </c>
       <c r="J9" t="n">
-        <v>295780247.9217596</v>
+        <v>293941729.411765</v>
       </c>
       <c r="K9" t="n">
-        <v>387117397.5550116</v>
+        <v>387394819.6078424</v>
       </c>
       <c r="L9" t="n">
-        <v>17373517.603912</v>
+        <v>17781513.23529408</v>
       </c>
       <c r="M9" t="n">
-        <v>2028588.264058676</v>
+        <v>1970648.529411761</v>
       </c>
       <c r="N9" t="n">
-        <v>3460063943.031787</v>
+        <v>3463565126.715693</v>
       </c>
       <c r="O9" t="n">
-        <v>3473545374.327624</v>
+        <v>3476417952.696082</v>
       </c>
       <c r="P9" t="n">
-        <v>301.7114914425429</v>
+        <v>44.11764705882345</v>
       </c>
       <c r="Q9" t="n">
-        <v>180.4400977995109</v>
+        <v>334.06862745098</v>
       </c>
       <c r="R9" t="n">
-        <v>3588935842.298283</v>
+        <v>3452159436.519611</v>
       </c>
       <c r="S9" t="n">
-        <v>32545850263.81417</v>
+        <v>32731764988.48038</v>
       </c>
       <c r="T9" t="n">
         <v>80</v>
@@ -964,58 +964,58 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1335716726.210268</v>
+        <v>1308401286.463735</v>
       </c>
       <c r="C10" t="n">
-        <v>4135810.80684597</v>
+        <v>4046696.391723273</v>
       </c>
       <c r="D10" t="n">
-        <v>11799015862.15161</v>
+        <v>11799364539.89449</v>
       </c>
       <c r="E10" t="n">
-        <v>25215433882.34721</v>
+        <v>24636842394.01588</v>
       </c>
       <c r="F10" t="n">
-        <v>8095489.364303182</v>
+        <v>8168993.318747893</v>
       </c>
       <c r="G10" t="n">
-        <v>132663589.6577018</v>
+        <v>134511687.1291732</v>
       </c>
       <c r="H10" t="n">
-        <v>552364042.6405872</v>
+        <v>586421663.645529</v>
       </c>
       <c r="I10" t="n">
-        <v>516012316.3080682</v>
+        <v>554982648.618551</v>
       </c>
       <c r="J10" t="n">
-        <v>307348510.7334955</v>
+        <v>324390444.4182688</v>
       </c>
       <c r="K10" t="n">
-        <v>397142653.2762833</v>
+        <v>412849347.9250373</v>
       </c>
       <c r="L10" t="n">
-        <v>19430190.73349636</v>
+        <v>22987222.5754444</v>
       </c>
       <c r="M10" t="n">
-        <v>2014186.430317844</v>
+        <v>2023392.403165196</v>
       </c>
       <c r="N10" t="n">
-        <v>3420703391.393647</v>
+        <v>3371485414.000564</v>
       </c>
       <c r="O10" t="n">
-        <v>3434144772.004888</v>
+        <v>3384015274.577408</v>
       </c>
       <c r="P10" t="n">
-        <v>289.8044009779954</v>
+        <v>103.9394421159127</v>
       </c>
       <c r="Q10" t="n">
-        <v>177.9217603911981</v>
+        <v>289.1813002842421</v>
       </c>
       <c r="R10" t="n">
-        <v>3673960422.665032</v>
+        <v>3715486070.552759</v>
       </c>
       <c r="S10" t="n">
-        <v>32194155862.71393</v>
+        <v>31783430406.02583</v>
       </c>
       <c r="T10" t="n">
         <v>90</v>
@@ -1026,58 +1026,58 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1188498592.909536</v>
+        <v>1185764158.47666</v>
       </c>
       <c r="C11" t="n">
-        <v>3741826.894865521</v>
+        <v>3801668.550368548</v>
       </c>
       <c r="D11" t="n">
-        <v>11808988093.64301</v>
+        <v>11809294080.58968</v>
       </c>
       <c r="E11" t="n">
-        <v>22404476847.18822</v>
+        <v>22313539094.10323</v>
       </c>
       <c r="F11" t="n">
-        <v>8262241.320293398</v>
+        <v>8493430.958230974</v>
       </c>
       <c r="G11" t="n">
-        <v>129344116.1369191</v>
+        <v>127719402.7027026</v>
       </c>
       <c r="H11" t="n">
-        <v>544411333.2518338</v>
+        <v>536324266.8304678</v>
       </c>
       <c r="I11" t="n">
-        <v>603823110.7579468</v>
+        <v>601248832.1867334</v>
       </c>
       <c r="J11" t="n">
-        <v>411462876.0391194</v>
+        <v>411052171.7444717</v>
       </c>
       <c r="K11" t="n">
-        <v>487369954.7677266</v>
+        <v>485296851.5970524</v>
       </c>
       <c r="L11" t="n">
-        <v>37940248.89975556</v>
+        <v>37803472.23587227</v>
       </c>
       <c r="M11" t="n">
-        <v>1884569.926650363</v>
+        <v>2173509.582309586</v>
       </c>
       <c r="N11" t="n">
-        <v>3066458426.650368</v>
+        <v>3109412385.503678</v>
       </c>
       <c r="O11" t="n">
-        <v>3079539351.10025</v>
+        <v>3121023036.855033</v>
       </c>
       <c r="P11" t="n">
-        <v>182.6405867970663</v>
+        <v>274.2014742014739</v>
       </c>
       <c r="Q11" t="n">
-        <v>155.2567237163816</v>
+        <v>161.4250614250611</v>
       </c>
       <c r="R11" t="n">
-        <v>4439181645.965768</v>
+        <v>4464954182.800972</v>
       </c>
       <c r="S11" t="n">
-        <v>29028906252.81179</v>
+        <v>29084324286.73213</v>
       </c>
       <c r="T11" t="n">
         <v>100</v>
@@ -1088,58 +1088,58 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1188498592.909536</v>
+        <v>1185764158.47666</v>
       </c>
       <c r="C12" t="n">
-        <v>3741826.894865521</v>
+        <v>3801668.550368548</v>
       </c>
       <c r="D12" t="n">
-        <v>11808988093.64301</v>
+        <v>11809294080.58968</v>
       </c>
       <c r="E12" t="n">
-        <v>22404476847.18822</v>
+        <v>22313539094.10323</v>
       </c>
       <c r="F12" t="n">
-        <v>8262241.320293398</v>
+        <v>8493430.958230974</v>
       </c>
       <c r="G12" t="n">
-        <v>129344116.1369191</v>
+        <v>127719402.7027026</v>
       </c>
       <c r="H12" t="n">
-        <v>544411333.2518338</v>
+        <v>536324266.8304678</v>
       </c>
       <c r="I12" t="n">
-        <v>603823110.7579468</v>
+        <v>601248832.1867334</v>
       </c>
       <c r="J12" t="n">
-        <v>411462876.0391194</v>
+        <v>411052171.7444717</v>
       </c>
       <c r="K12" t="n">
-        <v>487369954.7677266</v>
+        <v>485296851.5970524</v>
       </c>
       <c r="L12" t="n">
-        <v>37940248.89975556</v>
+        <v>37803472.23587227</v>
       </c>
       <c r="M12" t="n">
-        <v>1884569.926650363</v>
+        <v>2173509.582309586</v>
       </c>
       <c r="N12" t="n">
-        <v>3066458426.650368</v>
+        <v>3109412385.503678</v>
       </c>
       <c r="O12" t="n">
-        <v>3079539351.10025</v>
+        <v>3121023036.855033</v>
       </c>
       <c r="P12" t="n">
-        <v>182.6405867970663</v>
+        <v>274.2014742014739</v>
       </c>
       <c r="Q12" t="n">
-        <v>155.2567237163816</v>
+        <v>161.4250614250611</v>
       </c>
       <c r="R12" t="n">
-        <v>4439181645.965768</v>
+        <v>4464954182.800972</v>
       </c>
       <c r="S12" t="n">
-        <v>29028906252.81179</v>
+        <v>29084324286.73213</v>
       </c>
       <c r="T12" t="n">
         <v>110</v>
@@ -1150,58 +1150,58 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1188498592.909536</v>
+        <v>1185764158.47666</v>
       </c>
       <c r="C13" t="n">
-        <v>3741826.894865521</v>
+        <v>3801668.550368548</v>
       </c>
       <c r="D13" t="n">
-        <v>11808988093.64301</v>
+        <v>11809294080.58968</v>
       </c>
       <c r="E13" t="n">
-        <v>22404476847.18822</v>
+        <v>22313539094.10323</v>
       </c>
       <c r="F13" t="n">
-        <v>8262241.320293398</v>
+        <v>8493430.958230974</v>
       </c>
       <c r="G13" t="n">
-        <v>129344116.1369191</v>
+        <v>127719402.7027026</v>
       </c>
       <c r="H13" t="n">
-        <v>544411333.2518338</v>
+        <v>536324266.8304678</v>
       </c>
       <c r="I13" t="n">
-        <v>603823110.7579468</v>
+        <v>601248832.1867334</v>
       </c>
       <c r="J13" t="n">
-        <v>411462876.0391194</v>
+        <v>411052171.7444717</v>
       </c>
       <c r="K13" t="n">
-        <v>487369954.7677266</v>
+        <v>485296851.5970524</v>
       </c>
       <c r="L13" t="n">
-        <v>37940248.89975556</v>
+        <v>37803472.23587227</v>
       </c>
       <c r="M13" t="n">
-        <v>1884569.926650363</v>
+        <v>2173509.582309586</v>
       </c>
       <c r="N13" t="n">
-        <v>3066458426.650368</v>
+        <v>3109412385.503678</v>
       </c>
       <c r="O13" t="n">
-        <v>3079539351.10025</v>
+        <v>3121023036.855033</v>
       </c>
       <c r="P13" t="n">
-        <v>182.6405867970663</v>
+        <v>274.2014742014739</v>
       </c>
       <c r="Q13" t="n">
-        <v>155.2567237163816</v>
+        <v>161.4250614250611</v>
       </c>
       <c r="R13" t="n">
-        <v>4439181645.965768</v>
+        <v>4464954182.800972</v>
       </c>
       <c r="S13" t="n">
-        <v>29028906252.81179</v>
+        <v>29084324286.73213</v>
       </c>
       <c r="T13" t="n">
         <v>120</v>
@@ -1212,58 +1212,58 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1188498592.909536</v>
+        <v>1185764158.47666</v>
       </c>
       <c r="C14" t="n">
-        <v>3741826.894865521</v>
+        <v>3801668.550368548</v>
       </c>
       <c r="D14" t="n">
-        <v>11808988093.64301</v>
+        <v>11809294080.58968</v>
       </c>
       <c r="E14" t="n">
-        <v>22404476847.18822</v>
+        <v>22313539094.10323</v>
       </c>
       <c r="F14" t="n">
-        <v>8262241.320293398</v>
+        <v>8493430.958230974</v>
       </c>
       <c r="G14" t="n">
-        <v>129344116.1369191</v>
+        <v>127719402.7027026</v>
       </c>
       <c r="H14" t="n">
-        <v>544411333.2518338</v>
+        <v>536324266.8304678</v>
       </c>
       <c r="I14" t="n">
-        <v>603823110.7579468</v>
+        <v>601248832.1867334</v>
       </c>
       <c r="J14" t="n">
-        <v>411462876.0391194</v>
+        <v>411052171.7444717</v>
       </c>
       <c r="K14" t="n">
-        <v>487369954.7677266</v>
+        <v>485296851.5970524</v>
       </c>
       <c r="L14" t="n">
-        <v>37940248.89975556</v>
+        <v>37803472.23587227</v>
       </c>
       <c r="M14" t="n">
-        <v>1884569.926650363</v>
+        <v>2173509.582309586</v>
       </c>
       <c r="N14" t="n">
-        <v>3066458426.650368</v>
+        <v>3109412385.503678</v>
       </c>
       <c r="O14" t="n">
-        <v>3079539351.10025</v>
+        <v>3121023036.855033</v>
       </c>
       <c r="P14" t="n">
-        <v>182.6405867970663</v>
+        <v>274.2014742014739</v>
       </c>
       <c r="Q14" t="n">
-        <v>155.2567237163816</v>
+        <v>161.4250614250611</v>
       </c>
       <c r="R14" t="n">
-        <v>4439181645.965768</v>
+        <v>4464954182.800972</v>
       </c>
       <c r="S14" t="n">
-        <v>29028906252.81179</v>
+        <v>29084324286.73213</v>
       </c>
       <c r="T14" t="n">
         <v>130</v>
@@ -1274,58 +1274,58 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1190230039.682152</v>
+        <v>1185246217.787162</v>
       </c>
       <c r="C15" t="n">
-        <v>3758962.689486547</v>
+        <v>3804967.923290949</v>
       </c>
       <c r="D15" t="n">
-        <v>11809010911.54032</v>
+        <v>11807847799.58169</v>
       </c>
       <c r="E15" t="n">
-        <v>22437566888.3374</v>
+        <v>22300491213.96262</v>
       </c>
       <c r="F15" t="n">
-        <v>8229659.486552562</v>
+        <v>8395144.196144672</v>
       </c>
       <c r="G15" t="n">
-        <v>128764162.5183373</v>
+        <v>128208069.7217804</v>
       </c>
       <c r="H15" t="n">
-        <v>545406117.9217612</v>
+        <v>535429116.6096985</v>
       </c>
       <c r="I15" t="n">
-        <v>605450116.308069</v>
+        <v>601328872.8129973</v>
       </c>
       <c r="J15" t="n">
-        <v>413475128.8264067</v>
+        <v>410783761.1138704</v>
       </c>
       <c r="K15" t="n">
-        <v>488869911.7848408</v>
+        <v>485471469.8489671</v>
       </c>
       <c r="L15" t="n">
-        <v>37845021.6381418</v>
+        <v>37794975.64884741</v>
       </c>
       <c r="M15" t="n">
-        <v>1900024.107579462</v>
+        <v>2123616.593799685</v>
       </c>
       <c r="N15" t="n">
-        <v>3071677086.479213</v>
+        <v>3107723775.960844</v>
       </c>
       <c r="O15" t="n">
-        <v>3084831450.268956</v>
+        <v>3119727526.299685</v>
       </c>
       <c r="P15" t="n">
-        <v>156.2347188264058</v>
+        <v>322.5387519872812</v>
       </c>
       <c r="Q15" t="n">
-        <v>131.4914425427871</v>
+        <v>180.8793720190775</v>
       </c>
       <c r="R15" t="n">
-        <v>4414471294.889975</v>
+        <v>4455904859.952294</v>
       </c>
       <c r="S15" t="n">
-        <v>29101415089.19313</v>
+        <v>29097171841.78359</v>
       </c>
       <c r="T15" t="n">
         <v>140</v>
@@ -1336,58 +1336,58 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1194270082.15159</v>
+        <v>1184613179.166666</v>
       </c>
       <c r="C16" t="n">
-        <v>3798946.210268944</v>
+        <v>3809000.490196084</v>
       </c>
       <c r="D16" t="n">
-        <v>11809064153.30072</v>
+        <v>11806080122.79414</v>
       </c>
       <c r="E16" t="n">
-        <v>22514776984.3521</v>
+        <v>22284543804.90192</v>
       </c>
       <c r="F16" t="n">
-        <v>8153635.207823949</v>
+        <v>8275015.931372536</v>
       </c>
       <c r="G16" t="n">
-        <v>127410937.4083131</v>
+        <v>128805329.4117645</v>
       </c>
       <c r="H16" t="n">
-        <v>547727282.1515903</v>
+        <v>534335044.1176473</v>
       </c>
       <c r="I16" t="n">
-        <v>609246462.5916878</v>
+        <v>601426700.2450984</v>
       </c>
       <c r="J16" t="n">
-        <v>418170385.3300736</v>
+        <v>410455703.67647</v>
       </c>
       <c r="K16" t="n">
-        <v>492369811.4914421</v>
+        <v>485684892.1568631</v>
       </c>
       <c r="L16" t="n">
-        <v>37622824.69437646</v>
+        <v>37784590.93137259</v>
       </c>
       <c r="M16" t="n">
-        <v>1936083.863080687</v>
+        <v>2062636.274509806</v>
       </c>
       <c r="N16" t="n">
-        <v>3083853959.413198</v>
+        <v>3105659919.852938</v>
       </c>
       <c r="O16" t="n">
-        <v>3097179681.662594</v>
+        <v>3118144124.509808</v>
       </c>
       <c r="P16" t="n">
-        <v>94.62102689486568</v>
+        <v>381.6176470588233</v>
       </c>
       <c r="Q16" t="n">
-        <v>76.03911980440094</v>
+        <v>204.6568627450975</v>
       </c>
       <c r="R16" t="n">
-        <v>4356813809.046458</v>
+        <v>4444844576.470577</v>
       </c>
       <c r="S16" t="n">
-        <v>29270602374.08306</v>
+        <v>29112874409.06866</v>
       </c>
       <c r="T16" t="n">
         <v>150</v>
@@ -1398,58 +1398,58 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1194270082.15159</v>
+        <v>1184613179.166666</v>
       </c>
       <c r="C17" t="n">
-        <v>3798946.210268944</v>
+        <v>3809000.490196084</v>
       </c>
       <c r="D17" t="n">
-        <v>11809064153.30072</v>
+        <v>11806080122.79414</v>
       </c>
       <c r="E17" t="n">
-        <v>22514776984.3521</v>
+        <v>22284543804.90192</v>
       </c>
       <c r="F17" t="n">
-        <v>8153635.207823949</v>
+        <v>8275015.931372536</v>
       </c>
       <c r="G17" t="n">
-        <v>127410937.4083131</v>
+        <v>128805329.4117645</v>
       </c>
       <c r="H17" t="n">
-        <v>547727282.1515903</v>
+        <v>534335044.1176473</v>
       </c>
       <c r="I17" t="n">
-        <v>609246462.5916878</v>
+        <v>601426700.2450984</v>
       </c>
       <c r="J17" t="n">
-        <v>418170385.3300736</v>
+        <v>410455703.67647</v>
       </c>
       <c r="K17" t="n">
-        <v>492369811.4914421</v>
+        <v>485684892.1568631</v>
       </c>
       <c r="L17" t="n">
-        <v>37622824.69437646</v>
+        <v>37784590.93137259</v>
       </c>
       <c r="M17" t="n">
-        <v>1936083.863080687</v>
+        <v>2062636.274509806</v>
       </c>
       <c r="N17" t="n">
-        <v>3083853959.413198</v>
+        <v>3105659919.852938</v>
       </c>
       <c r="O17" t="n">
-        <v>3097179681.662594</v>
+        <v>3118144124.509808</v>
       </c>
       <c r="P17" t="n">
-        <v>94.62102689486568</v>
+        <v>381.6176470588233</v>
       </c>
       <c r="Q17" t="n">
-        <v>76.03911980440094</v>
+        <v>204.6568627450975</v>
       </c>
       <c r="R17" t="n">
-        <v>4356813809.046458</v>
+        <v>4444844576.470577</v>
       </c>
       <c r="S17" t="n">
-        <v>29270602374.08306</v>
+        <v>29112874409.06866</v>
       </c>
       <c r="T17" t="n">
         <v>160</v>
@@ -1460,58 +1460,58 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1194270082.15159</v>
+        <v>1184613179.166666</v>
       </c>
       <c r="C18" t="n">
-        <v>3798946.210268944</v>
+        <v>3809000.490196084</v>
       </c>
       <c r="D18" t="n">
-        <v>11809064153.30072</v>
+        <v>11806080122.79414</v>
       </c>
       <c r="E18" t="n">
-        <v>22514776984.3521</v>
+        <v>22284543804.90192</v>
       </c>
       <c r="F18" t="n">
-        <v>8153635.207823949</v>
+        <v>8275015.931372536</v>
       </c>
       <c r="G18" t="n">
-        <v>127410937.4083131</v>
+        <v>128805329.4117645</v>
       </c>
       <c r="H18" t="n">
-        <v>547727282.1515903</v>
+        <v>534335044.1176473</v>
       </c>
       <c r="I18" t="n">
-        <v>609246462.5916878</v>
+        <v>601426700.2450984</v>
       </c>
       <c r="J18" t="n">
-        <v>418170385.3300736</v>
+        <v>410455703.67647</v>
       </c>
       <c r="K18" t="n">
-        <v>492369811.4914421</v>
+        <v>485684892.1568631</v>
       </c>
       <c r="L18" t="n">
-        <v>37622824.69437646</v>
+        <v>37784590.93137259</v>
       </c>
       <c r="M18" t="n">
-        <v>1936083.863080687</v>
+        <v>2062636.274509806</v>
       </c>
       <c r="N18" t="n">
-        <v>3083853959.413198</v>
+        <v>3105659919.852938</v>
       </c>
       <c r="O18" t="n">
-        <v>3097179681.662594</v>
+        <v>3118144124.509808</v>
       </c>
       <c r="P18" t="n">
-        <v>94.62102689486568</v>
+        <v>381.6176470588233</v>
       </c>
       <c r="Q18" t="n">
-        <v>76.03911980440094</v>
+        <v>204.6568627450975</v>
       </c>
       <c r="R18" t="n">
-        <v>4356813809.046458</v>
+        <v>4444844576.470577</v>
       </c>
       <c r="S18" t="n">
-        <v>29270602374.08306</v>
+        <v>29112874409.06866</v>
       </c>
       <c r="T18" t="n">
         <v>170</v>
@@ -1522,58 +1522,58 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1194270082.15159</v>
+        <v>1184613179.166666</v>
       </c>
       <c r="C19" t="n">
-        <v>3798946.210268944</v>
+        <v>3809000.490196084</v>
       </c>
       <c r="D19" t="n">
-        <v>11809064153.30072</v>
+        <v>11806080122.79414</v>
       </c>
       <c r="E19" t="n">
-        <v>22514776984.3521</v>
+        <v>22284543804.90192</v>
       </c>
       <c r="F19" t="n">
-        <v>8153635.207823949</v>
+        <v>8275015.931372536</v>
       </c>
       <c r="G19" t="n">
-        <v>127410937.4083131</v>
+        <v>128805329.4117645</v>
       </c>
       <c r="H19" t="n">
-        <v>547727282.1515903</v>
+        <v>534335044.1176473</v>
       </c>
       <c r="I19" t="n">
-        <v>609246462.5916878</v>
+        <v>601426700.2450984</v>
       </c>
       <c r="J19" t="n">
-        <v>418170385.3300736</v>
+        <v>410455703.67647</v>
       </c>
       <c r="K19" t="n">
-        <v>492369811.4914421</v>
+        <v>485684892.1568631</v>
       </c>
       <c r="L19" t="n">
-        <v>37622824.69437646</v>
+        <v>37784590.93137259</v>
       </c>
       <c r="M19" t="n">
-        <v>1936083.863080687</v>
+        <v>2062636.274509806</v>
       </c>
       <c r="N19" t="n">
-        <v>3083853959.413198</v>
+        <v>3105659919.852938</v>
       </c>
       <c r="O19" t="n">
-        <v>3097179681.662594</v>
+        <v>3118144124.509808</v>
       </c>
       <c r="P19" t="n">
-        <v>94.62102689486568</v>
+        <v>381.6176470588233</v>
       </c>
       <c r="Q19" t="n">
-        <v>76.03911980440094</v>
+        <v>204.6568627450975</v>
       </c>
       <c r="R19" t="n">
-        <v>4356813809.046458</v>
+        <v>4444844576.470577</v>
       </c>
       <c r="S19" t="n">
-        <v>29270602374.08306</v>
+        <v>29112874409.06866</v>
       </c>
       <c r="T19" t="n">
         <v>180</v>
@@ -1584,58 +1584,58 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1139625731.838078</v>
+        <v>1117880042.572842</v>
       </c>
       <c r="C20" t="n">
-        <v>3647641.750533731</v>
+        <v>3595254.736384764</v>
       </c>
       <c r="D20" t="n">
-        <v>11809369393.15867</v>
+        <v>11796159196.52674</v>
       </c>
       <c r="E20" t="n">
-        <v>22346040510.78691</v>
+        <v>22040948806.18052</v>
       </c>
       <c r="F20" t="n">
-        <v>7243630.720847989</v>
+        <v>7326823.239351133</v>
       </c>
       <c r="G20" t="n">
-        <v>128204599.4331265</v>
+        <v>128882039.1830864</v>
       </c>
       <c r="H20" t="n">
-        <v>594072146.116124</v>
+        <v>596665114.526463</v>
       </c>
       <c r="I20" t="n">
-        <v>603964608.2888247</v>
+        <v>595109820.5576797</v>
       </c>
       <c r="J20" t="n">
-        <v>416522129.1709883</v>
+        <v>409112677.3725193</v>
       </c>
       <c r="K20" t="n">
-        <v>494004133.4375632</v>
+        <v>487713273.7484052</v>
       </c>
       <c r="L20" t="n">
-        <v>36397940.75757649</v>
+        <v>35821443.3243145</v>
       </c>
       <c r="M20" t="n">
-        <v>2127092.005891825</v>
+        <v>2126386.827436595</v>
       </c>
       <c r="N20" t="n">
-        <v>2900163472.668108</v>
+        <v>2885769358.871253</v>
       </c>
       <c r="O20" t="n">
-        <v>2913539833.803368</v>
+        <v>2944834531.247113</v>
       </c>
       <c r="P20" t="n">
-        <v>45.63529727473318</v>
+        <v>152.4430281892709</v>
       </c>
       <c r="Q20" t="n">
-        <v>35.73838630806843</v>
+        <v>471.8990783354902</v>
       </c>
       <c r="R20" t="n">
-        <v>4386217013.56159</v>
+        <v>4461995500.113179</v>
       </c>
       <c r="S20" t="n">
-        <v>28844639526.09705</v>
+        <v>29457542242.28448</v>
       </c>
       <c r="T20" t="n">
         <v>190</v>
@@ -1646,58 +1646,58 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1091167534.390246</v>
+        <v>1078687565.525674</v>
       </c>
       <c r="C21" t="n">
-        <v>3513466.097560979</v>
+        <v>3469721.515892413</v>
       </c>
       <c r="D21" t="n">
-        <v>11809640077.56099</v>
+        <v>11790332620.78241</v>
       </c>
       <c r="E21" t="n">
-        <v>22196406279.51217</v>
+        <v>21897885076.77265</v>
       </c>
       <c r="F21" t="n">
-        <v>6436645.609756094</v>
+        <v>6769948.166259184</v>
       </c>
       <c r="G21" t="n">
-        <v>128908412.9268292</v>
+        <v>128927090.9535453</v>
       </c>
       <c r="H21" t="n">
-        <v>635170421.7073164</v>
+        <v>633271663.8141801</v>
       </c>
       <c r="I21" t="n">
-        <v>599280699.7560977</v>
+        <v>591399907.0904653</v>
       </c>
       <c r="J21" t="n">
-        <v>415060468.048781</v>
+        <v>408323915.8924207</v>
       </c>
       <c r="K21" t="n">
-        <v>495453437.8048778</v>
+        <v>488904545.4767719</v>
       </c>
       <c r="L21" t="n">
-        <v>35311722.9268293</v>
+        <v>34668483.61858197</v>
       </c>
       <c r="M21" t="n">
-        <v>2296476.585365853</v>
+        <v>2163827.628361854</v>
       </c>
       <c r="N21" t="n">
-        <v>2737268135.365853</v>
+        <v>2756627283.374076</v>
       </c>
       <c r="O21" t="n">
-        <v>2750689402.682925</v>
+        <v>2843049532.029342</v>
       </c>
       <c r="P21" t="n">
-        <v>2.195121951219514</v>
+        <v>17.84841075794622</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>628.8508557457213</v>
       </c>
       <c r="R21" t="n">
-        <v>4412291553.414632</v>
+        <v>4472068264.792168</v>
       </c>
       <c r="S21" t="n">
-        <v>28466898887.31701</v>
+        <v>29659966207.82395</v>
       </c>
       <c r="T21" t="n">
         <v>200</v>
@@ -1708,58 +1708,58 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1091167534.390246</v>
+        <v>1078687565.525674</v>
       </c>
       <c r="C22" t="n">
-        <v>3513466.097560979</v>
+        <v>3469721.515892413</v>
       </c>
       <c r="D22" t="n">
-        <v>11809640077.56099</v>
+        <v>11790332620.78241</v>
       </c>
       <c r="E22" t="n">
-        <v>22196406279.51217</v>
+        <v>21897885076.77265</v>
       </c>
       <c r="F22" t="n">
-        <v>6436645.609756094</v>
+        <v>6769948.166259184</v>
       </c>
       <c r="G22" t="n">
-        <v>128908412.9268292</v>
+        <v>128927090.9535453</v>
       </c>
       <c r="H22" t="n">
-        <v>635170421.7073164</v>
+        <v>633271663.8141801</v>
       </c>
       <c r="I22" t="n">
-        <v>599280699.7560977</v>
+        <v>591399907.0904653</v>
       </c>
       <c r="J22" t="n">
-        <v>415060468.048781</v>
+        <v>408323915.8924207</v>
       </c>
       <c r="K22" t="n">
-        <v>495453437.8048778</v>
+        <v>488904545.4767719</v>
       </c>
       <c r="L22" t="n">
-        <v>35311722.9268293</v>
+        <v>34668483.61858197</v>
       </c>
       <c r="M22" t="n">
-        <v>2296476.585365853</v>
+        <v>2163827.628361854</v>
       </c>
       <c r="N22" t="n">
-        <v>2737268135.365853</v>
+        <v>2756627283.374076</v>
       </c>
       <c r="O22" t="n">
-        <v>2750689402.682925</v>
+        <v>2843049532.029342</v>
       </c>
       <c r="P22" t="n">
-        <v>2.195121951219514</v>
+        <v>17.84841075794622</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>628.8508557457213</v>
       </c>
       <c r="R22" t="n">
-        <v>4412291553.414632</v>
+        <v>4472068264.792168</v>
       </c>
       <c r="S22" t="n">
-        <v>28466898887.31701</v>
+        <v>29659966207.82395</v>
       </c>
       <c r="T22" t="n">
         <v>210</v>
@@ -1770,58 +1770,58 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1091167534.390246</v>
+        <v>1078687565.525674</v>
       </c>
       <c r="C23" t="n">
-        <v>3513466.097560979</v>
+        <v>3469721.515892413</v>
       </c>
       <c r="D23" t="n">
-        <v>11809640077.56099</v>
+        <v>11790332620.78241</v>
       </c>
       <c r="E23" t="n">
-        <v>22196406279.51217</v>
+        <v>21897885076.77265</v>
       </c>
       <c r="F23" t="n">
-        <v>6436645.609756094</v>
+        <v>6769948.166259184</v>
       </c>
       <c r="G23" t="n">
-        <v>128908412.9268292</v>
+        <v>128927090.9535453</v>
       </c>
       <c r="H23" t="n">
-        <v>635170421.7073164</v>
+        <v>633271663.8141801</v>
       </c>
       <c r="I23" t="n">
-        <v>599280699.7560977</v>
+        <v>591399907.0904653</v>
       </c>
       <c r="J23" t="n">
-        <v>415060468.048781</v>
+        <v>408323915.8924207</v>
       </c>
       <c r="K23" t="n">
-        <v>495453437.8048778</v>
+        <v>488904545.4767719</v>
       </c>
       <c r="L23" t="n">
-        <v>35311722.9268293</v>
+        <v>34668483.61858197</v>
       </c>
       <c r="M23" t="n">
-        <v>2296476.585365853</v>
+        <v>2163827.628361854</v>
       </c>
       <c r="N23" t="n">
-        <v>2737268135.365853</v>
+        <v>2756627283.374076</v>
       </c>
       <c r="O23" t="n">
-        <v>2750689402.682925</v>
+        <v>2843049532.029342</v>
       </c>
       <c r="P23" t="n">
-        <v>2.195121951219514</v>
+        <v>17.84841075794622</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>628.8508557457213</v>
       </c>
       <c r="R23" t="n">
-        <v>4412291553.414632</v>
+        <v>4472068264.792168</v>
       </c>
       <c r="S23" t="n">
-        <v>28466898887.31701</v>
+        <v>29659966207.82395</v>
       </c>
       <c r="T23" t="n">
         <v>220</v>
@@ -1832,58 +1832,58 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1091167534.390246</v>
+        <v>1078687565.525674</v>
       </c>
       <c r="C24" t="n">
-        <v>3513466.097560979</v>
+        <v>3469721.515892413</v>
       </c>
       <c r="D24" t="n">
-        <v>11809640077.56099</v>
+        <v>11790332620.78241</v>
       </c>
       <c r="E24" t="n">
-        <v>22196406279.51217</v>
+        <v>21897885076.77265</v>
       </c>
       <c r="F24" t="n">
-        <v>6436645.609756094</v>
+        <v>6769948.166259184</v>
       </c>
       <c r="G24" t="n">
-        <v>128908412.9268292</v>
+        <v>128927090.9535453</v>
       </c>
       <c r="H24" t="n">
-        <v>635170421.7073164</v>
+        <v>633271663.8141801</v>
       </c>
       <c r="I24" t="n">
-        <v>599280699.7560977</v>
+        <v>591399907.0904653</v>
       </c>
       <c r="J24" t="n">
-        <v>415060468.048781</v>
+        <v>408323915.8924207</v>
       </c>
       <c r="K24" t="n">
-        <v>495453437.8048778</v>
+        <v>488904545.4767719</v>
       </c>
       <c r="L24" t="n">
-        <v>35311722.9268293</v>
+        <v>34668483.61858197</v>
       </c>
       <c r="M24" t="n">
-        <v>2296476.585365853</v>
+        <v>2163827.628361854</v>
       </c>
       <c r="N24" t="n">
-        <v>2737268135.365853</v>
+        <v>2756627283.374076</v>
       </c>
       <c r="O24" t="n">
-        <v>2750689402.682925</v>
+        <v>2843049532.029342</v>
       </c>
       <c r="P24" t="n">
-        <v>2.195121951219514</v>
+        <v>17.84841075794622</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>628.8508557457213</v>
       </c>
       <c r="R24" t="n">
-        <v>4412291553.414632</v>
+        <v>4472068264.792168</v>
       </c>
       <c r="S24" t="n">
-        <v>28466898887.31701</v>
+        <v>29659966207.82395</v>
       </c>
       <c r="T24" t="n">
         <v>230</v>
@@ -1894,58 +1894,58 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1090872136.712245</v>
+        <v>1078728187.669353</v>
       </c>
       <c r="C25" t="n">
-        <v>3512575.133452897</v>
+        <v>3469365.616041032</v>
       </c>
       <c r="D25" t="n">
-        <v>11809615414.8284</v>
+        <v>11790856010.95111</v>
       </c>
       <c r="E25" t="n">
-        <v>22191256701.95625</v>
+        <v>21898377513.93703</v>
       </c>
       <c r="F25" t="n">
-        <v>6450196.124031561</v>
+        <v>6791295.308236267</v>
       </c>
       <c r="G25" t="n">
-        <v>128867803.0408416</v>
+        <v>128910390.0801093</v>
       </c>
       <c r="H25" t="n">
-        <v>634937487.532974</v>
+        <v>633099516.7027895</v>
       </c>
       <c r="I25" t="n">
-        <v>599195157.3786229</v>
+        <v>591433307.5127294</v>
       </c>
       <c r="J25" t="n">
-        <v>415018513.8397661</v>
+        <v>408322994.374371</v>
       </c>
       <c r="K25" t="n">
-        <v>495408474.7693685</v>
+        <v>488884570.4027992</v>
       </c>
       <c r="L25" t="n">
-        <v>35304504.59084173</v>
+        <v>34677642.02874066</v>
       </c>
       <c r="M25" t="n">
-        <v>2287743.985031086</v>
+        <v>2152281.542835223</v>
       </c>
       <c r="N25" t="n">
-        <v>2736543979.707556</v>
+        <v>2756378575.98029</v>
       </c>
       <c r="O25" t="n">
-        <v>2750052221.496913</v>
+        <v>2839770838.012874</v>
       </c>
       <c r="P25" t="n">
-        <v>2.768866571018653</v>
+        <v>17.9285919746872</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.08823529411764706</v>
+        <v>604.4909391629513</v>
       </c>
       <c r="R25" t="n">
-        <v>4412742192.542418</v>
+        <v>4468469390.210285</v>
       </c>
       <c r="S25" t="n">
-        <v>28469328627.8746</v>
+        <v>29610774707.62864</v>
       </c>
       <c r="T25" t="n">
         <v>240</v>
@@ -1956,58 +1956,58 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1076397650.490198</v>
+        <v>1079703119.117644</v>
       </c>
       <c r="C26" t="n">
-        <v>3468917.892156866</v>
+        <v>3460824.019607851</v>
       </c>
       <c r="D26" t="n">
-        <v>11808406940.93137</v>
+        <v>11803417375</v>
       </c>
       <c r="E26" t="n">
-        <v>21938927401.71571</v>
+        <v>21910196005.8823</v>
       </c>
       <c r="F26" t="n">
-        <v>7114171.323529422</v>
+        <v>7303626.715686267</v>
       </c>
       <c r="G26" t="n">
-        <v>126877918.6274513</v>
+        <v>128509569.1176473</v>
       </c>
       <c r="H26" t="n">
-        <v>623523712.9901958</v>
+        <v>628967986.0294107</v>
       </c>
       <c r="I26" t="n">
-        <v>595003580.8823532</v>
+        <v>592234917.6470586</v>
       </c>
       <c r="J26" t="n">
-        <v>412962757.5980384</v>
+        <v>408300877.9411774</v>
       </c>
       <c r="K26" t="n">
-        <v>493205286.0294108</v>
+        <v>488405168.6274516</v>
       </c>
       <c r="L26" t="n">
-        <v>34950806.12745097</v>
+        <v>34897443.87254903</v>
       </c>
       <c r="M26" t="n">
-        <v>1859846.568627448</v>
+        <v>1875175.490196074</v>
       </c>
       <c r="N26" t="n">
-        <v>2701060352.450986</v>
+        <v>2750409598.529416</v>
       </c>
       <c r="O26" t="n">
-        <v>2718830343.382357</v>
+        <v>2761082181.617643</v>
       </c>
       <c r="P26" t="n">
-        <v>30.88235294117645</v>
+        <v>19.85294117647062</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.411764705882345</v>
+        <v>19.85294117647062</v>
       </c>
       <c r="R26" t="n">
-        <v>4434823509.803919</v>
+        <v>4382096400.245095</v>
       </c>
       <c r="S26" t="n">
-        <v>28588385915.19612</v>
+        <v>28430178702.94114</v>
       </c>
       <c r="T26" t="n">
         <v>250</v>
@@ -2018,58 +2018,58 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1076397650.490198</v>
+        <v>1079703119.117644</v>
       </c>
       <c r="C27" t="n">
-        <v>3468917.892156866</v>
+        <v>3460824.019607851</v>
       </c>
       <c r="D27" t="n">
-        <v>11808406940.93137</v>
+        <v>11803417375</v>
       </c>
       <c r="E27" t="n">
-        <v>21938927401.71571</v>
+        <v>21910196005.8823</v>
       </c>
       <c r="F27" t="n">
-        <v>7114171.323529422</v>
+        <v>7303626.715686267</v>
       </c>
       <c r="G27" t="n">
-        <v>126877918.6274513</v>
+        <v>128509569.1176473</v>
       </c>
       <c r="H27" t="n">
-        <v>623523712.9901958</v>
+        <v>628967986.0294107</v>
       </c>
       <c r="I27" t="n">
-        <v>595003580.8823532</v>
+        <v>592234917.6470586</v>
       </c>
       <c r="J27" t="n">
-        <v>412962757.5980384</v>
+        <v>408300877.9411774</v>
       </c>
       <c r="K27" t="n">
-        <v>493205286.0294108</v>
+        <v>488405168.6274516</v>
       </c>
       <c r="L27" t="n">
-        <v>34950806.12745097</v>
+        <v>34897443.87254903</v>
       </c>
       <c r="M27" t="n">
-        <v>1859846.568627448</v>
+        <v>1875175.490196074</v>
       </c>
       <c r="N27" t="n">
-        <v>2701060352.450986</v>
+        <v>2750409598.529416</v>
       </c>
       <c r="O27" t="n">
-        <v>2718830343.382357</v>
+        <v>2761082181.617643</v>
       </c>
       <c r="P27" t="n">
-        <v>30.88235294117645</v>
+        <v>19.85294117647062</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.411764705882345</v>
+        <v>19.85294117647062</v>
       </c>
       <c r="R27" t="n">
-        <v>4434823509.803919</v>
+        <v>4382096400.245095</v>
       </c>
       <c r="S27" t="n">
-        <v>28588385915.19612</v>
+        <v>28430178702.94114</v>
       </c>
       <c r="T27" t="n">
         <v>260</v>
@@ -2080,58 +2080,58 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1076397650.490198</v>
+        <v>1079703119.117644</v>
       </c>
       <c r="C28" t="n">
-        <v>3468917.892156866</v>
+        <v>3460824.019607851</v>
       </c>
       <c r="D28" t="n">
-        <v>11808406940.93137</v>
+        <v>11803417375</v>
       </c>
       <c r="E28" t="n">
-        <v>21938927401.71571</v>
+        <v>21910196005.8823</v>
       </c>
       <c r="F28" t="n">
-        <v>7114171.323529422</v>
+        <v>7303626.715686267</v>
       </c>
       <c r="G28" t="n">
-        <v>126877918.6274513</v>
+        <v>128509569.1176473</v>
       </c>
       <c r="H28" t="n">
-        <v>623523712.9901958</v>
+        <v>628967986.0294107</v>
       </c>
       <c r="I28" t="n">
-        <v>595003580.8823532</v>
+        <v>592234917.6470586</v>
       </c>
       <c r="J28" t="n">
-        <v>412962757.5980384</v>
+        <v>408300877.9411774</v>
       </c>
       <c r="K28" t="n">
-        <v>493205286.0294108</v>
+        <v>488405168.6274516</v>
       </c>
       <c r="L28" t="n">
-        <v>34950806.12745097</v>
+        <v>34897443.87254903</v>
       </c>
       <c r="M28" t="n">
-        <v>1859846.568627448</v>
+        <v>1875175.490196074</v>
       </c>
       <c r="N28" t="n">
-        <v>2701060352.450986</v>
+        <v>2750409598.529416</v>
       </c>
       <c r="O28" t="n">
-        <v>2718830343.382357</v>
+        <v>2761082181.617643</v>
       </c>
       <c r="P28" t="n">
-        <v>30.88235294117645</v>
+        <v>19.85294117647062</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.411764705882345</v>
+        <v>19.85294117647062</v>
       </c>
       <c r="R28" t="n">
-        <v>4434823509.803919</v>
+        <v>4382096400.245095</v>
       </c>
       <c r="S28" t="n">
-        <v>28588385915.19612</v>
+        <v>28430178702.94114</v>
       </c>
       <c r="T28" t="n">
         <v>270</v>
@@ -2142,58 +2142,58 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1076397650.490198</v>
+        <v>1079703119.117644</v>
       </c>
       <c r="C29" t="n">
-        <v>3468917.892156866</v>
+        <v>3460824.019607851</v>
       </c>
       <c r="D29" t="n">
-        <v>11808406940.93137</v>
+        <v>11803417375</v>
       </c>
       <c r="E29" t="n">
-        <v>21938927401.71571</v>
+        <v>21910196005.8823</v>
       </c>
       <c r="F29" t="n">
-        <v>7114171.323529422</v>
+        <v>7303626.715686267</v>
       </c>
       <c r="G29" t="n">
-        <v>126877918.6274513</v>
+        <v>128509569.1176473</v>
       </c>
       <c r="H29" t="n">
-        <v>623523712.9901958</v>
+        <v>628967986.0294107</v>
       </c>
       <c r="I29" t="n">
-        <v>595003580.8823532</v>
+        <v>592234917.6470586</v>
       </c>
       <c r="J29" t="n">
-        <v>412962757.5980384</v>
+        <v>408300877.9411774</v>
       </c>
       <c r="K29" t="n">
-        <v>493205286.0294108</v>
+        <v>488405168.6274516</v>
       </c>
       <c r="L29" t="n">
-        <v>34950806.12745097</v>
+        <v>34897443.87254903</v>
       </c>
       <c r="M29" t="n">
-        <v>1859846.568627448</v>
+        <v>1875175.490196074</v>
       </c>
       <c r="N29" t="n">
-        <v>2701060352.450986</v>
+        <v>2750409598.529416</v>
       </c>
       <c r="O29" t="n">
-        <v>2718830343.382357</v>
+        <v>2761082181.617643</v>
       </c>
       <c r="P29" t="n">
-        <v>30.88235294117645</v>
+        <v>19.85294117647062</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.411764705882345</v>
+        <v>19.85294117647062</v>
       </c>
       <c r="R29" t="n">
-        <v>4434823509.803919</v>
+        <v>4382096400.245095</v>
       </c>
       <c r="S29" t="n">
-        <v>28588385915.19612</v>
+        <v>28430178702.94114</v>
       </c>
       <c r="T29" t="n">
         <v>280</v>
@@ -2204,58 +2204,58 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1076397650.490198</v>
+        <v>1079703119.117644</v>
       </c>
       <c r="C30" t="n">
-        <v>3468917.892156866</v>
+        <v>3460824.019607851</v>
       </c>
       <c r="D30" t="n">
-        <v>11808406940.93137</v>
+        <v>11803417375</v>
       </c>
       <c r="E30" t="n">
-        <v>21938927401.71571</v>
+        <v>21910196005.8823</v>
       </c>
       <c r="F30" t="n">
-        <v>7114171.323529422</v>
+        <v>7303626.715686267</v>
       </c>
       <c r="G30" t="n">
-        <v>126877918.6274513</v>
+        <v>128509569.1176473</v>
       </c>
       <c r="H30" t="n">
-        <v>623523712.9901958</v>
+        <v>628967986.0294107</v>
       </c>
       <c r="I30" t="n">
-        <v>595003580.8823532</v>
+        <v>592234917.6470586</v>
       </c>
       <c r="J30" t="n">
-        <v>412962757.5980384</v>
+        <v>408300877.9411774</v>
       </c>
       <c r="K30" t="n">
-        <v>493205286.0294108</v>
+        <v>488405168.6274516</v>
       </c>
       <c r="L30" t="n">
-        <v>34950806.12745097</v>
+        <v>34897443.87254903</v>
       </c>
       <c r="M30" t="n">
-        <v>1859846.568627448</v>
+        <v>1875175.490196074</v>
       </c>
       <c r="N30" t="n">
-        <v>2701060352.450986</v>
+        <v>2750409598.529416</v>
       </c>
       <c r="O30" t="n">
-        <v>2718830343.382357</v>
+        <v>2761082181.617643</v>
       </c>
       <c r="P30" t="n">
-        <v>30.88235294117645</v>
+        <v>19.85294117647062</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.411764705882345</v>
+        <v>19.85294117647062</v>
       </c>
       <c r="R30" t="n">
-        <v>4434823509.803919</v>
+        <v>4382096400.245095</v>
       </c>
       <c r="S30" t="n">
-        <v>28588385915.19612</v>
+        <v>28430178702.94114</v>
       </c>
       <c r="T30" t="n">
         <v>290</v>
@@ -2266,58 +2266,58 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1198806187.149816</v>
+        <v>1215618869.264706</v>
       </c>
       <c r="C31" t="n">
-        <v>3632719.760439133</v>
+        <v>3762806.127450988</v>
       </c>
       <c r="D31" t="n">
-        <v>11799585312.46679</v>
+        <v>11798854043.5392</v>
       </c>
       <c r="E31" t="n">
-        <v>23238854016.26637</v>
+        <v>23402319226.53925</v>
       </c>
       <c r="F31" t="n">
-        <v>5729184.968071319</v>
+        <v>5825738.151960771</v>
       </c>
       <c r="G31" t="n">
-        <v>128316659.7614459</v>
+        <v>127442592.2401964</v>
       </c>
       <c r="H31" t="n">
-        <v>618568754.4236544</v>
+        <v>617538538.3039204</v>
       </c>
       <c r="I31" t="n">
-        <v>552198770.2232122</v>
+        <v>566078692.5882359</v>
       </c>
       <c r="J31" t="n">
-        <v>361193571.032409</v>
+        <v>358294658.1176467</v>
       </c>
       <c r="K31" t="n">
-        <v>450560558.6605768</v>
+        <v>440573598.9166663</v>
       </c>
       <c r="L31" t="n">
-        <v>29774604.05728949</v>
+        <v>29161143.64215684</v>
       </c>
       <c r="M31" t="n">
-        <v>2117497.178675869</v>
+        <v>1940226.367647062</v>
       </c>
       <c r="N31" t="n">
-        <v>2992345134.624385</v>
+        <v>3053890782.22059</v>
       </c>
       <c r="O31" t="n">
-        <v>2631852317.135195</v>
+        <v>3065664695.617643</v>
       </c>
       <c r="P31" t="n">
-        <v>72.05206385732767</v>
+        <v>22.89705882352946</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.14051488566081</v>
+        <v>145.5637254901962</v>
       </c>
       <c r="R31" t="n">
-        <v>3954217834.712693</v>
+        <v>4012425631.426467</v>
       </c>
       <c r="S31" t="n">
-        <v>30513311124.86191</v>
+        <v>30331925673.91176</v>
       </c>
       <c r="T31" t="n">
         <v>300</v>
@@ -2328,58 +2328,58 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1354598870.171149</v>
+        <v>1375172141.17647</v>
       </c>
       <c r="C32" t="n">
-        <v>3841194.865525666</v>
+        <v>4117306.862745105</v>
       </c>
       <c r="D32" t="n">
-        <v>11788357785.33006</v>
+        <v>11793497089.21567</v>
       </c>
       <c r="E32" t="n">
-        <v>24893306071.14909</v>
+        <v>25153942137.74516</v>
       </c>
       <c r="F32" t="n">
-        <v>3966475.0611247</v>
+        <v>4090825.490196085</v>
       </c>
       <c r="G32" t="n">
-        <v>130147784.8410756</v>
+        <v>126190054.1666669</v>
       </c>
       <c r="H32" t="n">
-        <v>612262443.5207833</v>
+        <v>604121360.5392151</v>
       </c>
       <c r="I32" t="n">
-        <v>497719920.293398</v>
+        <v>535373558.8235304</v>
       </c>
       <c r="J32" t="n">
-        <v>295305515.4034231</v>
+        <v>299591704.411765</v>
       </c>
       <c r="K32" t="n">
-        <v>396285451.100244</v>
+        <v>384423495.3431369</v>
       </c>
       <c r="L32" t="n">
-        <v>23186710.51344746</v>
+        <v>22427225.98039212</v>
       </c>
       <c r="M32" t="n">
-        <v>2445416.136919316</v>
+        <v>2016590.441176476</v>
       </c>
       <c r="N32" t="n">
-        <v>3363071221.026897</v>
+        <v>3410151302.205885</v>
       </c>
       <c r="O32" t="n">
-        <v>2521153011.002445</v>
+        <v>3423218081.617642</v>
       </c>
       <c r="P32" t="n">
-        <v>124.449877750611</v>
+        <v>26.47058823529417</v>
       </c>
       <c r="Q32" t="n">
-        <v>215.1589242053794</v>
+        <v>293.1372549019612</v>
       </c>
       <c r="R32" t="n">
-        <v>3342537884.596582</v>
+        <v>3578464294.117642</v>
       </c>
       <c r="S32" t="n">
-        <v>32963215937.16385</v>
+        <v>32564411248.52943</v>
       </c>
       <c r="T32" t="n">
         <v>310</v>
@@ -2390,58 +2390,58 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1354598870.171149</v>
+        <v>1375172141.17647</v>
       </c>
       <c r="C33" t="n">
-        <v>3841194.865525666</v>
+        <v>4117306.862745105</v>
       </c>
       <c r="D33" t="n">
-        <v>11788357785.33006</v>
+        <v>11793497089.21567</v>
       </c>
       <c r="E33" t="n">
-        <v>24893306071.14909</v>
+        <v>25153942137.74516</v>
       </c>
       <c r="F33" t="n">
-        <v>3966475.0611247</v>
+        <v>4090825.490196085</v>
       </c>
       <c r="G33" t="n">
-        <v>130147784.8410756</v>
+        <v>126190054.1666669</v>
       </c>
       <c r="H33" t="n">
-        <v>612262443.5207833</v>
+        <v>604121360.5392151</v>
       </c>
       <c r="I33" t="n">
-        <v>497719920.293398</v>
+        <v>535373558.8235304</v>
       </c>
       <c r="J33" t="n">
-        <v>295305515.4034231</v>
+        <v>299591704.411765</v>
       </c>
       <c r="K33" t="n">
-        <v>396285451.100244</v>
+        <v>384423495.3431369</v>
       </c>
       <c r="L33" t="n">
-        <v>23186710.51344746</v>
+        <v>22427225.98039212</v>
       </c>
       <c r="M33" t="n">
-        <v>2445416.136919316</v>
+        <v>2016590.441176476</v>
       </c>
       <c r="N33" t="n">
-        <v>3363071221.026897</v>
+        <v>3410151302.205885</v>
       </c>
       <c r="O33" t="n">
-        <v>2521153011.002445</v>
+        <v>3423218081.617642</v>
       </c>
       <c r="P33" t="n">
-        <v>124.449877750611</v>
+        <v>26.47058823529417</v>
       </c>
       <c r="Q33" t="n">
-        <v>215.1589242053794</v>
+        <v>293.1372549019612</v>
       </c>
       <c r="R33" t="n">
-        <v>3342537884.596582</v>
+        <v>3578464294.117642</v>
       </c>
       <c r="S33" t="n">
-        <v>32963215937.16385</v>
+        <v>32564411248.52943</v>
       </c>
       <c r="T33" t="n">
         <v>320</v>
@@ -2452,58 +2452,58 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1354598870.171149</v>
+        <v>1375172141.17647</v>
       </c>
       <c r="C34" t="n">
-        <v>3841194.865525666</v>
+        <v>4117306.862745105</v>
       </c>
       <c r="D34" t="n">
-        <v>11788357785.33006</v>
+        <v>11793497089.21567</v>
       </c>
       <c r="E34" t="n">
-        <v>24893306071.14909</v>
+        <v>25153942137.74516</v>
       </c>
       <c r="F34" t="n">
-        <v>3966475.0611247</v>
+        <v>4090825.490196085</v>
       </c>
       <c r="G34" t="n">
-        <v>130147784.8410756</v>
+        <v>126190054.1666669</v>
       </c>
       <c r="H34" t="n">
-        <v>612262443.5207833</v>
+        <v>604121360.5392151</v>
       </c>
       <c r="I34" t="n">
-        <v>497719920.293398</v>
+        <v>535373558.8235304</v>
       </c>
       <c r="J34" t="n">
-        <v>295305515.4034231</v>
+        <v>299591704.411765</v>
       </c>
       <c r="K34" t="n">
-        <v>396285451.100244</v>
+        <v>384423495.3431369</v>
       </c>
       <c r="L34" t="n">
-        <v>23186710.51344746</v>
+        <v>22427225.98039212</v>
       </c>
       <c r="M34" t="n">
-        <v>2445416.136919316</v>
+        <v>2016590.441176476</v>
       </c>
       <c r="N34" t="n">
-        <v>3363071221.026897</v>
+        <v>3410151302.205885</v>
       </c>
       <c r="O34" t="n">
-        <v>2521153011.002445</v>
+        <v>3423218081.617642</v>
       </c>
       <c r="P34" t="n">
-        <v>124.449877750611</v>
+        <v>26.47058823529417</v>
       </c>
       <c r="Q34" t="n">
-        <v>215.1589242053794</v>
+        <v>293.1372549019612</v>
       </c>
       <c r="R34" t="n">
-        <v>3342537884.596582</v>
+        <v>3578464294.117642</v>
       </c>
       <c r="S34" t="n">
-        <v>32963215937.16385</v>
+        <v>32564411248.52943</v>
       </c>
       <c r="T34" t="n">
         <v>330</v>
@@ -2514,58 +2514,58 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1279570862.578512</v>
+        <v>1290071776.257586</v>
       </c>
       <c r="C35" t="n">
-        <v>3671320.478728612</v>
+        <v>3805594.286614887</v>
       </c>
       <c r="D35" t="n">
-        <v>11790814140.27127</v>
+        <v>11795910686.42283</v>
       </c>
       <c r="E35" t="n">
-        <v>23448966298.51637</v>
+        <v>23444561436.97494</v>
       </c>
       <c r="F35" t="n">
-        <v>3952553.804347312</v>
+        <v>4144140.217555968</v>
       </c>
       <c r="G35" t="n">
-        <v>125583345.9267456</v>
+        <v>122734375.8275263</v>
       </c>
       <c r="H35" t="n">
-        <v>589521566.0343083</v>
+        <v>583989715.4118667</v>
       </c>
       <c r="I35" t="n">
-        <v>550352251.9335508</v>
+        <v>577908676.8695515</v>
       </c>
       <c r="J35" t="n">
-        <v>354476917.6150341</v>
+        <v>367545061.9463895</v>
       </c>
       <c r="K35" t="n">
-        <v>438779253.707521</v>
+        <v>444846331.3027176</v>
       </c>
       <c r="L35" t="n">
-        <v>30949205.96968807</v>
+        <v>31781102.12765476</v>
       </c>
       <c r="M35" t="n">
-        <v>2244772.315981867</v>
+        <v>1998772.605152455</v>
       </c>
       <c r="N35" t="n">
-        <v>3186454782.178399</v>
+        <v>3209793409.195683</v>
       </c>
       <c r="O35" t="n">
-        <v>2692914412.5191</v>
+        <v>3222768910.841956</v>
       </c>
       <c r="P35" t="n">
-        <v>163.1681913053846</v>
+        <v>19.43873148281317</v>
       </c>
       <c r="Q35" t="n">
-        <v>141.8903273898264</v>
+        <v>138.9407689726265</v>
       </c>
       <c r="R35" t="n">
-        <v>3824983225.082534</v>
+        <v>4068965648.89299</v>
       </c>
       <c r="S35" t="n">
-        <v>31191945248.09197</v>
+        <v>30617107075.78439</v>
       </c>
       <c r="T35" t="n">
         <v>340</v>
@@ -2576,58 +2576,58 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1194964811.463414</v>
+        <v>1214605414.914426</v>
       </c>
       <c r="C36" t="n">
-        <v>3479760.000000006</v>
+        <v>3529169.92665036</v>
       </c>
       <c r="D36" t="n">
-        <v>11793584072.43901</v>
+        <v>11798051046.21028</v>
       </c>
       <c r="E36" t="n">
-        <v>21820242725.12196</v>
+        <v>21928695532.51836</v>
       </c>
       <c r="F36" t="n">
-        <v>3936855.365853663</v>
+        <v>4191419.315403421</v>
       </c>
       <c r="G36" t="n">
-        <v>120436212.6829267</v>
+        <v>119669906.3569681</v>
       </c>
       <c r="H36" t="n">
-        <v>563877597.804879</v>
+        <v>566137124.4498782</v>
       </c>
       <c r="I36" t="n">
-        <v>609703604.6341462</v>
+        <v>615628498.5330065</v>
       </c>
       <c r="J36" t="n">
-        <v>421202115.8536595</v>
+        <v>427805586.5525666</v>
       </c>
       <c r="K36" t="n">
-        <v>486697797.0731719</v>
+        <v>498428846.2102698</v>
       </c>
       <c r="L36" t="n">
-        <v>39702658.29268292</v>
+        <v>40076048.89975556</v>
       </c>
       <c r="M36" t="n">
-        <v>2018514.390243898</v>
+        <v>1982971.882640589</v>
       </c>
       <c r="N36" t="n">
-        <v>2987291563.902439</v>
+        <v>3032117541.809289</v>
       </c>
       <c r="O36" t="n">
-        <v>2886602801.463414</v>
+        <v>3045012099.022007</v>
       </c>
       <c r="P36" t="n">
-        <v>206.8292682926826</v>
+        <v>13.20293398533005</v>
       </c>
       <c r="Q36" t="n">
-        <v>59.26829268292689</v>
+        <v>2.20048899755501</v>
       </c>
       <c r="R36" t="n">
-        <v>4369017332.439032</v>
+        <v>4503938548.410754</v>
       </c>
       <c r="S36" t="n">
-        <v>29194554896.58538</v>
+        <v>28890252432.02934</v>
       </c>
       <c r="T36" t="n">
         <v>350</v>
@@ -2638,58 +2638,58 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1194964811.463414</v>
+        <v>1214605414.914426</v>
       </c>
       <c r="C37" t="n">
-        <v>3479760.000000006</v>
+        <v>3529169.92665036</v>
       </c>
       <c r="D37" t="n">
-        <v>11793584072.43901</v>
+        <v>11798051046.21028</v>
       </c>
       <c r="E37" t="n">
-        <v>21820242725.12196</v>
+        <v>21928695532.51836</v>
       </c>
       <c r="F37" t="n">
-        <v>3936855.365853663</v>
+        <v>4191419.315403421</v>
       </c>
       <c r="G37" t="n">
-        <v>120436212.6829267</v>
+        <v>119669906.3569681</v>
       </c>
       <c r="H37" t="n">
-        <v>563877597.804879</v>
+        <v>566137124.4498782</v>
       </c>
       <c r="I37" t="n">
-        <v>609703604.6341462</v>
+        <v>615628498.5330065</v>
       </c>
       <c r="J37" t="n">
-        <v>421202115.8536595</v>
+        <v>427805586.5525666</v>
       </c>
       <c r="K37" t="n">
-        <v>486697797.0731719</v>
+        <v>498428846.2102698</v>
       </c>
       <c r="L37" t="n">
-        <v>39702658.29268292</v>
+        <v>40076048.89975556</v>
       </c>
       <c r="M37" t="n">
-        <v>2018514.390243898</v>
+        <v>1982971.882640589</v>
       </c>
       <c r="N37" t="n">
-        <v>2987291563.902439</v>
+        <v>3032117541.809289</v>
       </c>
       <c r="O37" t="n">
-        <v>2886602801.463414</v>
+        <v>3045012099.022007</v>
       </c>
       <c r="P37" t="n">
-        <v>206.8292682926826</v>
+        <v>13.20293398533005</v>
       </c>
       <c r="Q37" t="n">
-        <v>59.26829268292689</v>
+        <v>2.20048899755501</v>
       </c>
       <c r="R37" t="n">
-        <v>4369017332.439032</v>
+        <v>4503938548.410754</v>
       </c>
       <c r="S37" t="n">
-        <v>29194554896.58538</v>
+        <v>28890252432.02934</v>
       </c>
       <c r="T37" t="n">
         <v>360</v>
@@ -2700,58 +2700,58 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1194964811.463414</v>
+        <v>1214605414.914426</v>
       </c>
       <c r="C38" t="n">
-        <v>3479760.000000006</v>
+        <v>3529169.92665036</v>
       </c>
       <c r="D38" t="n">
-        <v>11793584072.43901</v>
+        <v>11798051046.21028</v>
       </c>
       <c r="E38" t="n">
-        <v>21820242725.12196</v>
+        <v>21928695532.51836</v>
       </c>
       <c r="F38" t="n">
-        <v>3936855.365853663</v>
+        <v>4191419.315403421</v>
       </c>
       <c r="G38" t="n">
-        <v>120436212.6829267</v>
+        <v>119669906.3569681</v>
       </c>
       <c r="H38" t="n">
-        <v>563877597.804879</v>
+        <v>566137124.4498782</v>
       </c>
       <c r="I38" t="n">
-        <v>609703604.6341462</v>
+        <v>615628498.5330065</v>
       </c>
       <c r="J38" t="n">
-        <v>421202115.8536595</v>
+        <v>427805586.5525666</v>
       </c>
       <c r="K38" t="n">
-        <v>486697797.0731719</v>
+        <v>498428846.2102698</v>
       </c>
       <c r="L38" t="n">
-        <v>39702658.29268292</v>
+        <v>40076048.89975556</v>
       </c>
       <c r="M38" t="n">
-        <v>2018514.390243898</v>
+        <v>1982971.882640589</v>
       </c>
       <c r="N38" t="n">
-        <v>2987291563.902439</v>
+        <v>3032117541.809289</v>
       </c>
       <c r="O38" t="n">
-        <v>2886602801.463414</v>
+        <v>3045012099.022007</v>
       </c>
       <c r="P38" t="n">
-        <v>206.8292682926826</v>
+        <v>13.20293398533005</v>
       </c>
       <c r="Q38" t="n">
-        <v>59.26829268292689</v>
+        <v>2.20048899755501</v>
       </c>
       <c r="R38" t="n">
-        <v>4369017332.439032</v>
+        <v>4503938548.410754</v>
       </c>
       <c r="S38" t="n">
-        <v>29194554896.58538</v>
+        <v>28890252432.02934</v>
       </c>
       <c r="T38" t="n">
         <v>370</v>
@@ -2762,58 +2762,58 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1192227992.543133</v>
+        <v>1204696022.486193</v>
       </c>
       <c r="C39" t="n">
-        <v>3479858.739364307</v>
+        <v>3508409.297689238</v>
       </c>
       <c r="D39" t="n">
-        <v>11795429485.85257</v>
+        <v>11798229528.29891</v>
       </c>
       <c r="E39" t="n">
-        <v>21820511428.32861</v>
+        <v>21831975088.84964</v>
       </c>
       <c r="F39" t="n">
-        <v>4100854.56817938</v>
+        <v>4518159.49738722</v>
       </c>
       <c r="G39" t="n">
-        <v>120154370.6090284</v>
+        <v>120386308.8064744</v>
       </c>
       <c r="H39" t="n">
-        <v>558311486.7038828</v>
+        <v>556224227.7718854</v>
       </c>
       <c r="I39" t="n">
-        <v>605984292.7188621</v>
+        <v>607776266.1351562</v>
       </c>
       <c r="J39" t="n">
-        <v>418423687.2918485</v>
+        <v>420699445.4864922</v>
       </c>
       <c r="K39" t="n">
-        <v>484414653.7616562</v>
+        <v>491485328.3136178</v>
       </c>
       <c r="L39" t="n">
-        <v>39652633.26618163</v>
+        <v>39956855.2986721</v>
       </c>
       <c r="M39" t="n">
-        <v>2038320.766807797</v>
+        <v>2048673.034145935</v>
       </c>
       <c r="N39" t="n">
-        <v>2967495750.442649</v>
+        <v>2987431317.454387</v>
       </c>
       <c r="O39" t="n">
-        <v>2829135644.251202</v>
+        <v>2999922853.840106</v>
       </c>
       <c r="P39" t="n">
-        <v>213.1641242769392</v>
+        <v>50.68554341051823</v>
       </c>
       <c r="Q39" t="n">
-        <v>58.05630627944426</v>
+        <v>24.52520494750467</v>
       </c>
       <c r="R39" t="n">
-        <v>4391825602.538153</v>
+        <v>4498999488.853523</v>
       </c>
       <c r="S39" t="n">
-        <v>29075777956.22234</v>
+        <v>28701701712.11526</v>
       </c>
       <c r="T39" t="n">
         <v>380</v>
@@ -2824,58 +2824,58 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1175416104.889976</v>
+        <v>1169562722.058821</v>
       </c>
       <c r="C40" t="n">
-        <v>3480465.28117359</v>
+        <v>3434803.431372544</v>
       </c>
       <c r="D40" t="n">
-        <v>11806765596.82153</v>
+        <v>11798862328.43137</v>
       </c>
       <c r="E40" t="n">
-        <v>21822162033.74085</v>
+        <v>21489057152.20589</v>
       </c>
       <c r="F40" t="n">
-        <v>5108278.239608805</v>
+        <v>5676601.960784316</v>
       </c>
       <c r="G40" t="n">
-        <v>118423055.0122247</v>
+        <v>122926281.1274513</v>
       </c>
       <c r="H40" t="n">
-        <v>524119661.3691927</v>
+        <v>521078503.1862739</v>
       </c>
       <c r="I40" t="n">
-        <v>583137090.9535459</v>
+        <v>579936533.0882355</v>
       </c>
       <c r="J40" t="n">
-        <v>401356197.5550116</v>
+        <v>395504945.3431369</v>
       </c>
       <c r="K40" t="n">
-        <v>470389630.5623472</v>
+        <v>466867401.2254897</v>
       </c>
       <c r="L40" t="n">
-        <v>39345336.67481661</v>
+        <v>39534259.80392165</v>
       </c>
       <c r="M40" t="n">
-        <v>2159988.508557457</v>
+        <v>2281613.480392161</v>
       </c>
       <c r="N40" t="n">
-        <v>2845892896.332517</v>
+        <v>2828998340.196082</v>
       </c>
       <c r="O40" t="n">
-        <v>2476123107.090469</v>
+        <v>2840060984.558821</v>
       </c>
       <c r="P40" t="n">
-        <v>252.0782396088015</v>
+        <v>183.578431372549</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.6112469437653</v>
+        <v>103.6764705882351</v>
       </c>
       <c r="R40" t="n">
-        <v>4531933547.432761</v>
+        <v>4481488277.69608</v>
       </c>
       <c r="S40" t="n">
-        <v>28346148179.70658</v>
+        <v>28033203705.14708</v>
       </c>
       <c r="T40" t="n">
         <v>390</v>
@@ -2886,58 +2886,58 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1175416104.889976</v>
+        <v>1169562722.058821</v>
       </c>
       <c r="C41" t="n">
-        <v>3480465.28117359</v>
+        <v>3434803.431372544</v>
       </c>
       <c r="D41" t="n">
-        <v>11806765596.82153</v>
+        <v>11798862328.43137</v>
       </c>
       <c r="E41" t="n">
-        <v>21822162033.74085</v>
+        <v>21489057152.20589</v>
       </c>
       <c r="F41" t="n">
-        <v>5108278.239608805</v>
+        <v>5676601.960784316</v>
       </c>
       <c r="G41" t="n">
-        <v>118423055.0122247</v>
+        <v>122926281.1274513</v>
       </c>
       <c r="H41" t="n">
-        <v>524119661.3691927</v>
+        <v>521078503.1862739</v>
       </c>
       <c r="I41" t="n">
-        <v>583137090.9535459</v>
+        <v>579936533.0882355</v>
       </c>
       <c r="J41" t="n">
-        <v>401356197.5550116</v>
+        <v>395504945.3431369</v>
       </c>
       <c r="K41" t="n">
-        <v>470389630.5623472</v>
+        <v>466867401.2254897</v>
       </c>
       <c r="L41" t="n">
-        <v>39345336.67481661</v>
+        <v>39534259.80392165</v>
       </c>
       <c r="M41" t="n">
-        <v>2159988.508557457</v>
+        <v>2281613.480392161</v>
       </c>
       <c r="N41" t="n">
-        <v>2845892896.332517</v>
+        <v>2828998340.196082</v>
       </c>
       <c r="O41" t="n">
-        <v>2476123107.090469</v>
+        <v>2840060984.558821</v>
       </c>
       <c r="P41" t="n">
-        <v>252.0782396088015</v>
+        <v>183.578431372549</v>
       </c>
       <c r="Q41" t="n">
-        <v>50.6112469437653</v>
+        <v>103.6764705882351</v>
       </c>
       <c r="R41" t="n">
-        <v>4531933547.432761</v>
+        <v>4481488277.69608</v>
       </c>
       <c r="S41" t="n">
-        <v>28346148179.70658</v>
+        <v>28033203705.14708</v>
       </c>
       <c r="T41" t="n">
         <v>400</v>
@@ -2948,58 +2948,58 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1175416104.889976</v>
+        <v>1169562722.058821</v>
       </c>
       <c r="C42" t="n">
-        <v>3480465.28117359</v>
+        <v>3434803.431372544</v>
       </c>
       <c r="D42" t="n">
-        <v>11806765596.82153</v>
+        <v>11798862328.43137</v>
       </c>
       <c r="E42" t="n">
-        <v>21822162033.74085</v>
+        <v>21489057152.20589</v>
       </c>
       <c r="F42" t="n">
-        <v>5108278.239608805</v>
+        <v>5676601.960784316</v>
       </c>
       <c r="G42" t="n">
-        <v>118423055.0122247</v>
+        <v>122926281.1274513</v>
       </c>
       <c r="H42" t="n">
-        <v>524119661.3691927</v>
+        <v>521078503.1862739</v>
       </c>
       <c r="I42" t="n">
-        <v>583137090.9535459</v>
+        <v>579936533.0882355</v>
       </c>
       <c r="J42" t="n">
-        <v>401356197.5550116</v>
+        <v>395504945.3431369</v>
       </c>
       <c r="K42" t="n">
-        <v>470389630.5623472</v>
+        <v>466867401.2254897</v>
       </c>
       <c r="L42" t="n">
-        <v>39345336.67481661</v>
+        <v>39534259.80392165</v>
       </c>
       <c r="M42" t="n">
-        <v>2159988.508557457</v>
+        <v>2281613.480392161</v>
       </c>
       <c r="N42" t="n">
-        <v>2845892896.332517</v>
+        <v>2828998340.196082</v>
       </c>
       <c r="O42" t="n">
-        <v>2476123107.090469</v>
+        <v>2840060984.558821</v>
       </c>
       <c r="P42" t="n">
-        <v>252.0782396088015</v>
+        <v>183.578431372549</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.6112469437653</v>
+        <v>103.6764705882351</v>
       </c>
       <c r="R42" t="n">
-        <v>4531933547.432761</v>
+        <v>4481488277.69608</v>
       </c>
       <c r="S42" t="n">
-        <v>28346148179.70658</v>
+        <v>28033203705.14708</v>
       </c>
       <c r="T42" t="n">
         <v>410</v>
@@ -3010,58 +3010,58 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1175416104.889976</v>
+        <v>1169562722.058821</v>
       </c>
       <c r="C43" t="n">
-        <v>3480465.28117359</v>
+        <v>3434803.431372544</v>
       </c>
       <c r="D43" t="n">
-        <v>11806765596.82153</v>
+        <v>11798862328.43137</v>
       </c>
       <c r="E43" t="n">
-        <v>21822162033.74085</v>
+        <v>21489057152.20589</v>
       </c>
       <c r="F43" t="n">
-        <v>5108278.239608805</v>
+        <v>5676601.960784316</v>
       </c>
       <c r="G43" t="n">
-        <v>118423055.0122247</v>
+        <v>122926281.1274513</v>
       </c>
       <c r="H43" t="n">
-        <v>524119661.3691927</v>
+        <v>521078503.1862739</v>
       </c>
       <c r="I43" t="n">
-        <v>583137090.9535459</v>
+        <v>579936533.0882355</v>
       </c>
       <c r="J43" t="n">
-        <v>401356197.5550116</v>
+        <v>395504945.3431369</v>
       </c>
       <c r="K43" t="n">
-        <v>470389630.5623472</v>
+        <v>466867401.2254897</v>
       </c>
       <c r="L43" t="n">
-        <v>39345336.67481661</v>
+        <v>39534259.80392165</v>
       </c>
       <c r="M43" t="n">
-        <v>2159988.508557457</v>
+        <v>2281613.480392161</v>
       </c>
       <c r="N43" t="n">
-        <v>2845892896.332517</v>
+        <v>2828998340.196082</v>
       </c>
       <c r="O43" t="n">
-        <v>2476123107.090469</v>
+        <v>2840060984.558821</v>
       </c>
       <c r="P43" t="n">
-        <v>252.0782396088015</v>
+        <v>183.578431372549</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.6112469437653</v>
+        <v>103.6764705882351</v>
       </c>
       <c r="R43" t="n">
-        <v>4531933547.432761</v>
+        <v>4481488277.69608</v>
       </c>
       <c r="S43" t="n">
-        <v>28346148179.70658</v>
+        <v>28033203705.14708</v>
       </c>
       <c r="T43" t="n">
         <v>420</v>
